--- a/excel/memo_log.xlsx
+++ b/excel/memo_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>10/28/2025, 4:11:00 PM</t>
   </si>
@@ -116,6 +116,30 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/dxrsubxwi/image/upload/v1761769402/movement-register/fwlbxhorw8kftkoejj9j.jpg</t>
+  </si>
+  <si>
+    <t>10/31/2025, 3:39:31 PM</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>Human Resources</t>
+  </si>
+  <si>
+    <t>RE: REQUEST FOR DUTY TOUR ALLOWANCE (DTA) FOR FILING, SERVICE AND TRANSPORTATION IFO IBRAHIM ABDULLAHI</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dxrsubxwi/image/upload/v1761921551/movement-register/e9qssh7az1xplbbrovyw.jpg</t>
+  </si>
+  <si>
+    <t>Atta</t>
+  </si>
+  <si>
+    <t>10/31/2025, 3:39:34 PM</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/dxrsubxwi/image/upload/v1761921570/movement-register/b8onwyjfapykgictawc6.jpg</t>
   </si>
 </sst>
 </file>
@@ -433,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="N13" sqref="N13"/>
@@ -779,6 +803,58 @@
         <v>30</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>158600</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15">
+        <v>158600</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
